--- a/01需求调研/调研资料目录.xlsx
+++ b/01需求调研/调研资料目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bjut\2020_VR\vr_Git\vr_indoorFurnitureRoaming\01需求调研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684B16C-97DF-4830-9ED5-F9C566C348FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC534C7-3EE7-4E83-9CAC-7B05E2FD60F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12990" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>lowpoly风格模型参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>lowpoly风格UI参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景参考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>https://onedrive.live.com/view.aspx</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,13 +33,66 @@
   <si>
     <t>\\KILLINGMACHINE\ChoseWay\ProjectFiles</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]卧室图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]洗手间参考图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]杂物参考图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考](阅)基于PBR理论的虚拟现实室内家居展示的研究与应用_邱畅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]参照户型图_v1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]户型图</t>
+  </si>
+  <si>
+    <t>[参考]卧室max</t>
+  </si>
+  <si>
+    <t>[参考]宜家推出VR交互技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[参考]中石油机构可视化平台_需求说明_V1.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房子外观白模</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要制作的模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内漫游_需求规格说明书</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +123,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,6 +174,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -449,57 +509,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,19 +601,27 @@
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -569,6 +651,26 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/01需求调研/调研资料目录.xlsx
+++ b/01需求调研/调研资料目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bjut\2020_VR\vr_Git\vr_indoorFurnitureRoaming\01需求调研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC534C7-3EE7-4E83-9CAC-7B05E2FD60F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA69AD-4AB2-45B7-9C9E-59C90A77F41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12990" yWindow="3510" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="3825" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>https://onedrive.live.com/view.aspx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\\KILLINGMACHINE\ChoseWay\ProjectFiles</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>[参考]卧室图</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,6 +78,48 @@
   </si>
   <si>
     <t>室内漫游_需求规格说明书</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/tree/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%8D%A7%E5%AE%A4-%E5%9B%BE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/tree/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E6%B4%97%E6%89%8B%E9%97%B4%E5%8F%82%E8%80%83%E5%9B%BE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/tree/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E6%9D%82%E7%89%A9%E5%8F%82%E8%80%83%E5%9B%BE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D(%E9%98%85)%E5%9F%BA%E4%BA%8EPBR%E7%90%86%E8%AE%BA%E7%9A%84%E8%99%9A%E6%8B%9F%E7%8E%B0%E5%AE%9E%E5%AE%A4%E5%86%85%E5%AE%B6%E5%B1%85%E5%B1%95%E7%A4%BA%E7%9A%84%E7%A0%94%E7%A9%B6%E4%B8%8E%E5%BA%94%E7%94%A8_%E9%82%B1%E7%95%85.caj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%8F%82%E7%85%A7%E6%88%B7%E5%9E%8B%E5%9B%BE_v1.png</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E6%88%B7%E5%9E%8B%E5%9B%BE.rar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%8D%A7%E5%AE%A4max.rar</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%AE%9C%E5%AE%B6%E6%8E%A8%E5%87%BAVR%E4%BA%A4%E4%BA%92%E6%8A%80%E6%9C%AF.flv</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E4%B8%AD%E7%9F%B3%E6%B2%B9%E6%9C%BA%E6%9E%84%E5%8F%AF%E8%A7%86%E5%8C%96%E5%B9%B3%E5%8F%B0_%E9%9C%80%E6%B1%82%E8%AF%B4%E6%98%8E_V1.1.pdf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%E6%88%B7%E5%9E%8B.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%E9%9C%80%E8%A6%81%E5%88%B6%E4%BD%9C%E7%9A%84%E6%A8%A1%E5%9E%8B_V1.txt</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E5%AE%A4%E5%86%85%E6%BC%AB%E6%B8%B8_%E9%9C%80%E6%B1%82%E8%A7%84%E6%A0%BC%E8%AF%B4%E6%98%8E%E4%B9%A6.docx</t>
   </si>
 </sst>
 </file>
@@ -498,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -510,71 +544,81 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -602,27 +646,33 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
@@ -678,9 +728,16 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{2973C412-42ED-4572-8CC9-11E291669C33}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://onedrive.live.com/view.aspx" xr:uid="{2973C412-42ED-4572-8CC9-11E291669C33}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{5F7B89F7-34CE-407D-9407-79EA8D12CE02}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{DDAD1895-4300-4E31-9C57-B5FB5E75BFAF}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{642C386E-F2BF-45E0-BC18-907DC0CEE56D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1CC761AB-9541-4905-8DB8-275FF4EA0330}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{0AC6789E-E97A-4F95-A71C-8C6D20B81D85}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{E10D912C-E13B-4661-B499-571EAFC4C6E6}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{D162E66A-CC5A-4090-B0C5-9D80862F8D43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
--- a/01需求调研/调研资料目录.xlsx
+++ b/01需求调研/调研资料目录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bjut\2020_VR\vr_Git\vr_indoorFurnitureRoaming\01需求调研\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA69AD-4AB2-45B7-9C9E-59C90A77F41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253CEE7-22B7-46E7-8ED9-26E578C7BF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3825" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="3885" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>[参考]卧室图</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E5%AE%A4%E5%86%85%E6%BC%AB%E6%B8%B8_%E9%9C%80%E6%B1%82%E8%A7%84%E6%A0%BC%E8%AF%B4%E6%98%8E%E4%B9%A6.docx</t>
+  </si>
+  <si>
+    <t>[参考]厨房.zip</t>
+  </si>
+  <si>
+    <t>[参考]客厅.rar</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%AE%A2%E5%8E%85.rar</t>
+  </si>
+  <si>
+    <t>https://github.com/MuzhiYing/vr_indoorFurnitureRoaming/blob/master/01%E9%9C%80%E6%B1%82%E8%B0%83%E7%A0%94/%E9%99%84%E5%BD%95/%5B%E5%8F%82%E8%80%83%5D%E5%8E%A8%E6%88%BF.zip</t>
   </si>
 </sst>
 </file>
@@ -532,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,12 +633,20 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -736,8 +756,10 @@
     <hyperlink ref="B18" r:id="rId9" xr:uid="{0AC6789E-E97A-4F95-A71C-8C6D20B81D85}"/>
     <hyperlink ref="B19" r:id="rId10" xr:uid="{E10D912C-E13B-4661-B499-571EAFC4C6E6}"/>
     <hyperlink ref="B20" r:id="rId11" xr:uid="{D162E66A-CC5A-4090-B0C5-9D80862F8D43}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{9C1E12B3-E77F-4AC1-B638-90C2F56F5AD8}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{46E84AF0-CA32-4299-B588-EB3F31BDFF11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId14"/>
 </worksheet>
 </file>